--- a/biology/Histoire de la zoologie et de la botanique/Michael_Gordon_Rix/Michael_Gordon_Rix.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Michael_Gordon_Rix/Michael_Gordon_Rix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Michael Gordon Rix est un arachnologiste australien, spécialiste des araignées australiennes.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Étudiant à l'université d'Australie-Occidentale, il obtient un doctorat en 2009[1], intitulé Taxonomy and systematics of the Australian Micropholcommatidae (Arachnida: Araneae)[2].
-En février 2020, il devient conservateur principal de l'arachnologie et chargé de recherche dans le programme Biodiversité et géosciences du Queensland Museum[1]. Il a occupé de nombreux postes, notamment président de la Society of Australian Systematic Biologists et éditeur associé de The Journal of Arachnology. Il est largement publié et cité[3]. Son intérêt pour les araignées s'est développé dans son enfance[4].
-Il s'intéresse aux mygales australiennes et à leur déclin au cours de la dernière décennie[5],[6]. Au début de 2020, Rix se dit préoccupé par l'extinction probable de Zephyrarchaea austini qui n'est connue que dans la zone de protection de la nature sauvage de la rivière Western sur l'Île Kangourou, à la suite des feux de brousse catastrophiques de 2020[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Étudiant à l'université d'Australie-Occidentale, il obtient un doctorat en 2009, intitulé Taxonomy and systematics of the Australian Micropholcommatidae (Arachnida: Araneae).
+En février 2020, il devient conservateur principal de l'arachnologie et chargé de recherche dans le programme Biodiversité et géosciences du Queensland Museum. Il a occupé de nombreux postes, notamment président de la Society of Australian Systematic Biologists et éditeur associé de The Journal of Arachnology. Il est largement publié et cité. Son intérêt pour les araignées s'est développé dans son enfance.
+Il s'intéresse aux mygales australiennes et à leur déclin au cours de la dernière décennie,. Au début de 2020, Rix se dit préoccupé par l'extinction probable de Zephyrarchaea austini qui n'est connue que dans la zone de protection de la nature sauvage de la rivière Western sur l'Île Kangourou, à la suite des feux de brousse catastrophiques de 2020.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Taxons nommés en son honneur</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Opopaea rixi Baehr &amp; Harvey, 2013
 Ischnothyreus rixi Edward &amp; Harvey, 2014
@@ -577,7 +593,9 @@
           <t>Taxons décrits</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le World Spider Catalog, en janvier 2022, répertorie 236 espèces et 24 genres décrits ou co-décrits par Rix :
 Algidiella Rix &amp; Harvey, 2010
